--- a/biology/Histoire de la zoologie et de la botanique/William_Forsell_Kirby/William_Forsell_Kirby.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Forsell_Kirby/William_Forsell_Kirby.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">William Forsell Kirby est un entomologiste et un spécialiste du folklore britannique, né le 14 janvier 1844 à Leicester et mort le 20 novembre 1912 à Londres.
 </t>
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il fait ses études auprès d’un précepteur et très tôt s’intéresse aux papillons. Il fait paraître, dès 1862, un petit Manual of European Butterflies.
-En 1867, il devient conservateur du musée (en) de la Société royale de Dublin. Kirby fait paraître en 1871 un Synonymic Catalogue of Diurnal Lepidoptera qu’il complète en 1877[1].
+En 1867, il devient conservateur du musée (en) de la Société royale de Dublin. Kirby fait paraître en 1871 un Synonymic Catalogue of Diurnal Lepidoptera qu’il complète en 1877.
 En 1879, il rejoint le personnel du British Museum comme assistant après la mort de Frederick Smith (1805-1879). Il fait paraître alors plusieurs catalogues d’espèces comme Rhopalocera Exotica (1887-1897) ainsi qu’un Elementary Text-book of Entomology. Il prend sa retraite en 1909.
 Kirby s’intéresse à de nombreux sujets et est polyglotte. Il est le premier traducteur en anglais de l’épopée finnoise Kalevala.
 Ses types sont aujourd’hui conservés au muséum d'histoire naturelle de Londres et une partie de sa collection au muséum national de Dublin.
@@ -546,7 +560,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">(Liste incomplète)
 Manual of European Butterflies. 1862
